--- a/Excel/Ch. 12. Excel - Scatter Plot - Linear Scales - Errors.xlsx
+++ b/Excel/Ch. 12. Excel - Scatter Plot - Linear Scales - Errors.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\- - PROGRAMS AND DATA\Chapter 12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\BOOK\- - Final for Springer\3. Programs\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ALPHA">Sheet1!$O$18</definedName>
-    <definedName name="DENOM">Sheet1!$K$24</definedName>
-    <definedName name="LAMBDA">Sheet1!$O$19</definedName>
-    <definedName name="LMABDA">Sheet1!$O$19</definedName>
-    <definedName name="N">Sheet1!$K$18</definedName>
-    <definedName name="SDD">Sheet1!$K$26</definedName>
-    <definedName name="SIGMAY">Sheet1!$K$28</definedName>
-    <definedName name="SX">Sheet1!$K$19</definedName>
-    <definedName name="SXX">Sheet1!$K$22</definedName>
-    <definedName name="SXY">Sheet1!$K$21</definedName>
-    <definedName name="SY">Sheet1!$K$20</definedName>
-    <definedName name="SYY">Sheet1!$K$23</definedName>
-    <definedName name="X">Sheet1!$Q$27</definedName>
+    <definedName name="ALPHA">Sheet1!$O$20</definedName>
+    <definedName name="DENOM">Sheet1!$K$26</definedName>
+    <definedName name="LAMBDA">Sheet1!$O$21</definedName>
+    <definedName name="LMABDA">Sheet1!$O$21</definedName>
+    <definedName name="N">Sheet1!$K$20</definedName>
+    <definedName name="SDD">Sheet1!$K$28</definedName>
+    <definedName name="SIGMAY">Sheet1!$K$30</definedName>
+    <definedName name="SX">Sheet1!$K$21</definedName>
+    <definedName name="SXX">Sheet1!$K$24</definedName>
+    <definedName name="SXY">Sheet1!$K$23</definedName>
+    <definedName name="SY">Sheet1!$K$22</definedName>
+    <definedName name="SYY">Sheet1!$K$25</definedName>
+    <definedName name="X">Sheet1!$Q$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>x</t>
   </si>
@@ -51,18 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">on the element to open the window giving the </t>
-  </si>
-  <si>
-    <t>To fit a curve to the points, move the cursor to the</t>
-  </si>
-  <si>
-    <t>top right corner and click. Click on the cross key and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select Trend Line More Options. Select the </t>
-  </si>
-  <si>
-    <t>required line to be fitted.</t>
   </si>
   <si>
     <t>δx</t>
@@ -121,6 +110,21 @@
   </si>
   <si>
     <t>choices available for the particular element.</t>
+  </si>
+  <si>
+    <t>In Sheet2 a 3rd order curve was fitted to the points</t>
+  </si>
+  <si>
+    <t>To fit another curve to the points, move the cursor</t>
+  </si>
+  <si>
+    <t>to the top right corner and click on the cross key to</t>
+  </si>
+  <si>
+    <t>Choose the required line to be fitted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select Trend Line More Options. </t>
   </si>
 </sst>
 </file>
@@ -247,10 +251,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
         <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="-0.249977111117893"/>
@@ -262,18 +266,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
         <color theme="4" tint="-0.249977111117893"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -281,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,7 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,9 +335,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,9 +348,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,59 +518,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:forward val="0.5"/>
-            <c:backward val="0.5"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.3788773128249799E-2"/>
-                  <c:y val="-3.8524953064141006E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -573,10 +525,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$C$3:$C$10000</c:f>
+                <c:f>Sheet1!$C$3:$C$10002</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9998"/>
+                  <c:ptCount val="10000"/>
                   <c:pt idx="0">
                     <c:v>0.05</c:v>
                   </c:pt>
@@ -627,10 +579,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$C$3:$C$10000</c:f>
+                <c:f>Sheet1!$C$3:$C$10002</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9998"/>
+                  <c:ptCount val="10000"/>
                   <c:pt idx="0">
                     <c:v>0.05</c:v>
                   </c:pt>
@@ -700,10 +652,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$3:$D$10000</c:f>
+                <c:f>Sheet1!$D$3:$D$10002</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9998"/>
+                  <c:ptCount val="10000"/>
                   <c:pt idx="0">
                     <c:v>0.2</c:v>
                   </c:pt>
@@ -754,10 +706,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$D$3:$D$10000</c:f>
+                <c:f>Sheet1!$D$3:$D$10002</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9998"/>
+                  <c:ptCount val="10000"/>
                   <c:pt idx="0">
                     <c:v>0.2</c:v>
                   </c:pt>
@@ -822,10 +774,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10005</c:f>
+              <c:f>Sheet1!$A$3:$A$10007</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10003"/>
+                <c:ptCount val="10005"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -876,10 +828,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10005</c:f>
+              <c:f>Sheet1!$B$3:$B$10007</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10003"/>
+                <c:ptCount val="10005"/>
                 <c:pt idx="0">
                   <c:v>0.92</c:v>
                 </c:pt>
@@ -1303,7 +1255,975 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Scatter Plot - Linear Scales - Errors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3788773128249799E-2"/>
+                  <c:y val="-3.8524953064141006E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$3:$C$10002</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10000"/>
+                  <c:pt idx="0">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$3:$C$10002</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10000"/>
+                  <c:pt idx="0">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$3:$D$10002</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10000"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$3:$D$10002</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10000"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10007</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10005"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10007</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10005"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-718B-4FDB-B93F-0322BFF80381}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="494535640"/>
+        <c:axId val="494533672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="494535640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>X-axis Title, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>  (units)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40527410056275714"/>
+              <c:y val="0.88220640569395015"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494533672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="494533672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Y-axis</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Title, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Y</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>  (units)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.9979407595884575E-2"/>
+              <c:y val="0.30938586413353131"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494535640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1859,6 +2779,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1871,7 +3307,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1966,9 +3402,46 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="D" displayName="D" ref="A1:D10000" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D10000"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="D" displayName="D" ref="A1:D10002" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D10002"/>
   <tableColumns count="4">
     <tableColumn id="1" name="x" dataDxfId="3"/>
     <tableColumn id="2" name="y" dataDxfId="2"/>
@@ -2280,10 +3753,10 @@
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,8 +3768,8 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -2317,10 +3790,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2331,12 +3804,12 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -2352,14 +3825,14 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="23"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
@@ -2375,12 +3848,12 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="23"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -2396,14 +3869,14 @@
         <v>0.4</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="23"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -2419,14 +3892,14 @@
         <v>0.3</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="23"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -2442,14 +3915,14 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="23"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="22"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -2469,12 +3942,12 @@
         <v>0.3</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="23"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="22"/>
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
       <c r="P8" s="3"/>
@@ -2496,14 +3969,14 @@
         <v>0.4</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="22"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
       <c r="P9" s="3"/>
@@ -2525,14 +3998,14 @@
         <v>0.4</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="3"/>
@@ -2554,14 +4027,14 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="22"/>
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
       <c r="P11" s="3"/>
@@ -2583,12 +4056,12 @@
         <v>0.4</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="22"/>
       <c r="O12" s="5"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -2609,14 +4082,14 @@
         <v>0.3</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="22"/>
       <c r="N13" s="4"/>
       <c r="R13" s="5"/>
       <c r="S13" s="4"/>
@@ -2635,14 +4108,12 @@
         <v>0.7</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="23"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="22"/>
       <c r="N14" s="4"/>
       <c r="R14" s="5"/>
       <c r="S14" s="4"/>
@@ -2661,21 +4132,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="22"/>
+      <c r="N15" s="4"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2691,23 +4157,20 @@
       <c r="D16" s="13">
         <v>1</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="22"/>
+      <c r="N16" s="4"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>4.5</v>
       </c>
@@ -2720,12 +4183,15 @@
       <c r="D17" s="13">
         <v>1</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -2733,50 +4199,49 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -2786,31 +4251,31 @@
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="6"/>
+      <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -2820,31 +4285,31 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="4"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -2854,14 +4319,14 @@
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -2871,14 +4336,14 @@
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -2888,14 +4353,14 @@
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
@@ -2905,14 +4370,14 @@
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -2922,12 +4387,14 @@
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -2936,13 +4403,15 @@
       <c r="R29" s="12"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
@@ -2950,11 +4419,6 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="4"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G31" s="12"/>
@@ -2969,9 +4433,51 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="4"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="7"/>
+    </row>
+    <row r="33" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G2:J2"/>
@@ -2988,4 +4494,19 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>